--- a/biology/Botanique/Gentiana_zollingeri/Gentiana_zollingeri.xlsx
+++ b/biology/Botanique/Gentiana_zollingeri/Gentiana_zollingeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiane de Zollinger
 La Gentiane de Zollinger (Gentiana zollingeri) est une espèce végétale de la famille des Gentianaceae. C'est une plante originaire du Japon, de Chine et de Corée du Sud.
@@ -512,9 +524,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, la Gentiane de Zollinger est nommée Fuderindō (フデリンドウ?, litt. « Gentiane pinceau ») en raison de la forme de son bouton qui rappelle celle de la pointe d'un pinceau de calligraphie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, la Gentiane de Zollinger est nommée Fuderindō (フデリンドウ?, litt. « Gentiane pinceau ») en raison de la forme de son bouton qui rappelle celle de la pointe d'un pinceau de calligraphie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ciminalis zollingeri (Fawc.) Zuev
 Gentiana aomorensis Leveille
